--- a/5/3/Moneda extranjera 2003 a 2021 - Mensual.xlsx
+++ b/5/3/Moneda extranjera 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4160,6 +4163,20 @@
         <v>29742.7</v>
       </c>
     </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>41591.51</v>
+      </c>
+      <c r="C223">
+        <v>11810.18</v>
+      </c>
+      <c r="D223">
+        <v>29781.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/3/Moneda extranjera 2003 a 2021 - Mensual.xlsx
+++ b/5/3/Moneda extranjera 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4177,6 +4180,20 @@
         <v>29781.34</v>
       </c>
     </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224">
+        <v>42599.87</v>
+      </c>
+      <c r="C224">
+        <v>11685.83</v>
+      </c>
+      <c r="D224">
+        <v>30914.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/3/Moneda extranjera 2003 a 2021 - Mensual.xlsx
+++ b/5/3/Moneda extranjera 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4194,6 +4197,20 @@
         <v>30914.04</v>
       </c>
     </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>42799.6</v>
+      </c>
+      <c r="C225">
+        <v>11604.67</v>
+      </c>
+      <c r="D225">
+        <v>31194.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
